--- a/数据集.xlsx
+++ b/数据集.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>N/QE</t>
   </si>
@@ -373,9 +373,6 @@
     <t>CPU+2*GPUs</t>
   </si>
   <si>
-    <t>1_GPU</t>
-  </si>
-  <si>
     <t>2_GPU</t>
   </si>
   <si>
@@ -528,9 +525,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -555,14 +552,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,23 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,22 +665,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,36 +682,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,13 +704,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,31 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,126 +888,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -898,6 +895,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -935,69 +995,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1006,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,137 +1015,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,12 +1160,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2797,6 +2788,792 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.135850111856823"/>
+          <c:y val="0.0553814002089864"/>
+          <c:w val="0.763534675615212"/>
+          <c:h val="0.821421107628004"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$27:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sn2Bi-F</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SbCaK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CoSiTa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>InYCd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RuAsV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$27:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU+GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$27:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sn2Bi-F</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SbCaK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CoSiTa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>InYCd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RuAsV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$27:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="542667059"/>
+        <c:axId val="876347164"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$27:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sn2Bi-F</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SbCaK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CoSiTa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>InYCd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RuAsV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$27:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.44724025974026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.97277227722772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.34777070063694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.28432732316227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.62921348314607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.17662337662338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="805101335"/>
+        <c:axId val="99500105"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542667059"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876347164"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="876347164"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542667059"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="805101335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99500105"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99500105"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:rPr>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805101335"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.165555555555556"/>
+          <c:y val="0.0613425925925926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
@@ -3220,7 +3997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5226,7 +6003,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_GPU</c:v>
+                  <c:v>Speed-up</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8077,7 +8854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_GPU</c:v>
+                  <c:v>Speed-up</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8723,6 +9500,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10050,6 +10867,509 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10569,7 +11889,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15272,16 +16592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15289,7 +16609,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6789420" y="4927600"/>
+        <a:off x="9075420" y="5019040"/>
         <a:ext cx="4701540" cy="2606040"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15333,15 +16653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>610870</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>885190</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:colOff>382270</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15349,7 +16669,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="610870" y="6588760"/>
+        <a:off x="107950" y="6070600"/>
         <a:ext cx="4572000" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15362,16 +16682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15379,7 +16699,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="690880" y="4993640"/>
+        <a:off x="5826760" y="5938520"/>
         <a:ext cx="4572000" cy="2628900"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15415,6 +16735,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4610100" y="5588000"/>
+        <a:ext cx="4541520" cy="2430780"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15955,7 +17305,7 @@
       </c>
     </row>
     <row r="18" ht="26" customHeight="1" spans="8:16">
-      <c r="H18" s="8"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
@@ -16670,8 +18020,8 @@
   <sheetPr/>
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E54" sqref="A54:B60 E54:F60"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -16967,13 +18317,13 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
         <v>118</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -17148,170 +18498,170 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="7"/>
+      <c r="E54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>300</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>3202</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>806</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="5">
         <f t="shared" ref="D55:D61" si="4">B55/C55</f>
         <v>3.9727047146402</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>548</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <f>B55/E55</f>
         <v>5.84306569343066</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>6346</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <v>1554</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="5">
         <f t="shared" si="4"/>
         <v>4.08365508365508</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>1031</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="5">
         <f t="shared" ref="F56:F61" si="5">B56/E56</f>
         <v>6.15518913676043</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>9488</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>2301</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="5">
         <f t="shared" si="4"/>
         <v>4.12342459800087</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>1527</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="5">
         <f t="shared" si="5"/>
         <v>6.21349050425671</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>12627</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="5">
         <v>3049</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="5">
         <f t="shared" si="4"/>
         <v>4.1413578222368</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>2014</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="5">
         <f t="shared" si="5"/>
         <v>6.26961271102284</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>15766</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>3796</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="5">
         <f t="shared" si="4"/>
         <v>4.15331928345627</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>2504</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="5">
         <f t="shared" si="5"/>
         <v>6.29632587859425</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>18902</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <v>4544</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="5">
         <f t="shared" si="4"/>
         <v>4.15977112676056</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>2991</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="5">
         <f t="shared" si="5"/>
         <v>6.31962554329656</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>22040</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>5300</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="5">
         <f t="shared" si="4"/>
         <v>4.15849056603774</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>3470</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="5">
         <f t="shared" si="5"/>
         <v>6.35158501440922</v>
       </c>
@@ -17324,7 +18674,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -17372,7 +18722,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -17381,7 +18731,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="1">
         <v>808</v>
@@ -17396,7 +18746,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="1">
         <v>828</v>
@@ -17409,7 +18759,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="1">
         <v>978</v>
@@ -17422,7 +18772,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="1">
         <v>1154</v>
@@ -17435,7 +18785,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91" s="1">
         <v>1719</v>
@@ -17448,7 +18798,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" s="1">
         <v>795</v>
@@ -17463,7 +18813,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="1">
         <v>804</v>
@@ -17483,14 +18833,14 @@
         <v>92</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="1">
         <v>991</v>
@@ -17500,7 +18850,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="1">
         <v>841</v>
@@ -17510,7 +18860,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="1">
         <v>821</v>
@@ -17520,7 +18870,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="1">
         <v>808</v>
@@ -17530,7 +18880,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="1">
         <v>817</v>
@@ -17541,12 +18891,12 @@
         <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1">
         <v>808</v>
@@ -17554,7 +18904,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1">
         <v>828</v>
@@ -17562,7 +18912,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1">
         <v>978</v>
@@ -17570,7 +18920,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1">
         <v>1154</v>
@@ -17578,7 +18928,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1">
         <v>1719</v>
@@ -17586,7 +18936,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1">
         <v>795</v>
@@ -17594,7 +18944,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1">
         <v>804</v>
@@ -17602,52 +18952,52 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1">
         <v>1719</v>
@@ -17655,32 +19005,32 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="1">
         <v>1552</v>
       </c>
-      <c r="C135" s="8"/>
+      <c r="C135" s="6"/>
       <c r="D135" s="1">
         <v>4</v>
       </c>
@@ -17708,7 +19058,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="1">
         <v>845</v>
@@ -17743,7 +19093,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1">
         <v>890</v>
@@ -17774,7 +19124,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="1">
         <v>1154</v>
@@ -17801,7 +19151,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B139" s="1">
         <v>1030</v>
@@ -17824,7 +19174,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B140" s="1">
         <v>1254</v>
@@ -17833,7 +19183,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="1">
         <v>1332</v>
@@ -17841,7 +19191,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="1">
         <v>808</v>
@@ -17849,7 +19199,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" s="1">
         <v>828</v>
@@ -17857,7 +19207,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B144" s="1">
         <v>978</v>
@@ -17865,7 +19215,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="1">
         <v>795</v>
@@ -17873,7 +19223,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1">
         <v>858</v>
@@ -17881,7 +19231,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="1">
         <v>804</v>
@@ -17889,7 +19239,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B148" s="1">
         <v>1319</v>
@@ -17897,7 +19247,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B149" s="1">
         <v>823</v>
@@ -17905,7 +19255,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B150" s="1">
         <v>1050</v>
@@ -17964,7 +19314,7 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>5412</v>
@@ -17982,7 +19332,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>6948</v>
@@ -18000,7 +19350,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>7399</v>
@@ -18015,7 +19365,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>1119</v>
@@ -18023,15 +19373,15 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -18039,13 +19389,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>8382</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>16855</v>
@@ -18053,13 +19403,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>11585</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>22989</v>
@@ -18067,13 +19417,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11">
         <v>8955</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>11929</v>
@@ -18081,13 +19431,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12">
         <v>1486</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>1119</v>
@@ -18095,7 +19445,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>78623</v>
@@ -18113,7 +19463,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>111375</v>
@@ -18131,7 +19481,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>46563</v>
@@ -18146,7 +19496,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22">
         <v>15282</v>
@@ -18154,7 +19504,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25">
         <v>115800</v>
@@ -18162,7 +19512,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26">
         <v>160606</v>
@@ -18170,7 +19520,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27">
         <v>70657</v>
@@ -18178,7 +19528,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28">
         <v>15282</v>

--- a/数据集.xlsx
+++ b/数据集.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\ShengBTE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B54E58B-F712-4FA5-BED7-2976A6D9BD04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9347" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-9000" yWindow="2232" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -523,14 +536,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,357 +546,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.2"/>
+      <sz val="10.199999999999999"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -897,251 +581,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,68 +610,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1268,7 +666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,6 +674,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1309,9 +726,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$10:$A$15</c:f>
@@ -1365,6 +779,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8044-4876-A8FA-9EDBB73E574F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1390,9 +809,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$10:$A$15</c:f>
@@ -1446,6 +862,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8044-4876-A8FA-9EDBB73E574F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1489,9 +910,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$10:$A$15</c:f>
@@ -1525,27 +943,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.42206896551724</c:v>
+                  <c:v>1.4220689655172414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.38112522686025</c:v>
+                  <c:v>3.3811252268602541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.45328031809145</c:v>
+                  <c:v>3.4532803180914513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.39254385964912</c:v>
+                  <c:v>3.3925438596491229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.28712871287129</c:v>
+                  <c:v>4.2871287128712874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.28333333333333</c:v>
+                  <c:v>3.2833333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8044-4876-A8FA-9EDBB73E574F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1555,7 +978,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="228108613"/>
         <c:axId val="929502836"/>
@@ -1595,6 +1018,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1628,6 +1052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="228564939"/>
@@ -1695,11 +1120,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1708,6 +1131,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1737,6 +1180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873332057"/>
@@ -1764,28 +1208,10 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="929502836"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
@@ -1824,11 +1250,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1837,6 +1261,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1866,6 +1310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="228108613"/>
@@ -1883,7 +1328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1909,6 +1353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1938,6 +1383,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1949,7 +1395,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1993,9 +1439,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -2049,6 +1492,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92EB-4E24-87BB-C1DB19C227F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2074,9 +1522,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -2130,6 +1575,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92EB-4E24-87BB-C1DB19C227F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2155,9 +1605,6 @@
               <c:f>Sheet4!$F$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2173,9 +1620,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -2209,27 +1653,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.84306569343066</c:v>
+                  <c:v>5.8430656934306571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.15518913676043</c:v>
+                  <c:v>6.155189136760427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.21349050425671</c:v>
+                  <c:v>6.2134905042567121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.26961271102284</c:v>
+                  <c:v>6.2696127110228401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.29632587859425</c:v>
+                  <c:v>6.2963258785942493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.31962554329656</c:v>
+                  <c:v>6.3196255432965565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92EB-4E24-87BB-C1DB19C227F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2239,7 +1688,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="667267562"/>
         <c:axId val="720062678"/>
@@ -2300,7 +1749,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr>
+                  <a:rPr lang="en-US">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
@@ -2308,16 +1757,9 @@
                   </a:rPr>
                   <a:t>Temperature/K</a:t>
                 </a:r>
-                <a:endParaRPr>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2326,7 +1768,29 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2361,6 +1825,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61441863"/>
@@ -2434,16 +1899,9 @@
                   </a:rPr>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2452,6 +1910,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2482,6 +1961,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="343197526"/>
@@ -2495,29 +1975,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="720062678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2561,16 +2022,9 @@
                   </a:rPr>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2579,6 +2033,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2609,6 +2084,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="667267562"/>
@@ -2645,6 +2121,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2668,6 +2145,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2691,6 +2169,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -2698,8 +2177,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18125"/>
-          <c:y val="0.0530092592592593"/>
+          <c:x val="0.18124999999999999"/>
+          <c:y val="5.3009259259259298E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2728,6 +2207,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2762,6 +2242,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2773,7 +2254,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2794,9 +2275,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.135850111856823"/>
-          <c:y val="0.0553814002089864"/>
-          <c:w val="0.763534675615212"/>
-          <c:h val="0.821421107628004"/>
+          <c:y val="5.5381400208986402E-2"/>
+          <c:w val="0.76353467561521204"/>
+          <c:h val="0.82142110762800402"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2827,9 +2308,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -2883,6 +2361,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE63-4ABA-89E6-C4EF83EC859F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2908,9 +2391,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -2964,6 +2444,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE63-4ABA-89E6-C4EF83EC859F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3007,9 +2492,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -3043,27 +2525,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.44724025974026</c:v>
+                  <c:v>1.4472402597402598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.97277227722772</c:v>
+                  <c:v>3.972772277227723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.34777070063694</c:v>
+                  <c:v>4.3477707006369428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.28432732316227</c:v>
+                  <c:v>4.2843273231622749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.62921348314607</c:v>
+                  <c:v>4.6292134831460672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.17662337662338</c:v>
+                  <c:v>4.1766233766233762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE63-4ABA-89E6-C4EF83EC859F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3073,7 +2560,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="805101335"/>
         <c:axId val="99500105"/>
@@ -3113,6 +2600,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3147,6 +2635,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="876347164"/>
@@ -3220,16 +2709,9 @@
                   </a:rPr>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3238,6 +2720,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3268,6 +2771,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="542667059"/>
@@ -3281,29 +2785,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="99500105"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3347,16 +2832,9 @@
                   </a:rPr>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3365,6 +2843,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3395,6 +2894,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="805101335"/>
@@ -3431,6 +2931,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -3454,6 +2955,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -3477,6 +2979,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -3484,8 +2987,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.165555555555556"/>
-          <c:y val="0.0613425925925926"/>
+          <c:x val="0.16555555555555601"/>
+          <c:y val="6.1342592592592601E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3514,6 +3017,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3548,6 +3052,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3559,7 +3064,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3580,8 +3085,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3600,6 +3103,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A506-451C-8487-873D5C93BACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3619,6 +3127,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A506-451C-8487-873D5C93BACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3638,6 +3151,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A506-451C-8487-873D5C93BACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3657,12 +3175,15 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A506-451C-8487-873D5C93BACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3671,7 +3192,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3679,11 +3200,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -3697,12 +3219,13 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A506-451C-8487-873D5C93BACB}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3711,7 +3234,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3719,11 +3242,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -3737,12 +3261,13 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A506-451C-8487-873D5C93BACB}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3751,7 +3276,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3759,11 +3284,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent3"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -3777,38 +3303,41 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A506-451C-8487-873D5C93BACB}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00833333333333333"/>
-                  <c:y val="0.0134048257372654"/>
+                  <c:x val="-8.3333333333333297E-3"/>
+                  <c:y val="1.34048257372654E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr defTabSz="914400">
+                    <a:pPr>
                       <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="accent4"/>
+                          <a:schemeClr val="accent1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>others 2%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3817,7 +3346,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -3825,11 +3354,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent4"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -3842,12 +3372,12 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A506-451C-8487-873D5C93BACB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3856,7 +3386,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3864,11 +3394,12 @@
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3879,25 +3410,22 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3941,6 +3469,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A506-451C-8487-873D5C93BACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3985,8 +3518,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr lang="zh-CN">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3998,7 +3535,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4019,8 +3556,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -4039,6 +3574,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AF85-4940-8393-5443B06ADE7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4058,6 +3598,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AF85-4940-8393-5443B06ADE7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4077,6 +3622,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AF85-4940-8393-5443B06ADE7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4096,12 +3646,15 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AF85-4940-8393-5443B06ADE7C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4110,7 +3663,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4118,11 +3671,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4136,12 +3690,13 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AF85-4940-8393-5443B06ADE7C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4150,7 +3705,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4158,11 +3713,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4176,12 +3732,13 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AF85-4940-8393-5443B06ADE7C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4190,7 +3747,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4198,11 +3755,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent3"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4216,38 +3774,41 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AF85-4940-8393-5443B06ADE7C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00324675324675325"/>
-                  <c:y val="0.0135572961846406"/>
+                  <c:x val="-3.24675324675325E-3"/>
+                  <c:y val="1.35572961846406E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr defTabSz="914400">
+                    <a:pPr>
                       <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="accent4"/>
+                          <a:schemeClr val="accent1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
+                      <a:rPr lang="en-US"/>
                       <a:t>other 4%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4256,7 +3817,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
@@ -4264,11 +3825,12 @@
                       <a:solidFill>
                         <a:schemeClr val="accent4"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4285,9 +3847,12 @@
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.167207792207792"/>
-                      <c:h val="0.089920724801812"/>
+                      <c:h val="8.9920724801811999E-2"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AF85-4940-8393-5443B06ADE7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4299,7 +3864,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4307,11 +3872,12 @@
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4322,25 +3888,22 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4384,6 +3947,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AF85-4940-8393-5443B06ADE7C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4428,8 +3996,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr lang="zh-CN">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4441,7 +4013,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4480,11 +4052,9 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Sn2Si-F</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4493,6 +4063,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4501,10 +4091,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.117722222222222"/>
-          <c:y val="0.176388888888889"/>
-          <c:w val="0.793444444444444"/>
-          <c:h val="0.656111111111111"/>
+          <c:x val="0.11772222222222201"/>
+          <c:y val="0.17638888888888901"/>
+          <c:w val="0.79344444444444395"/>
+          <c:h val="0.65611111111111098"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4535,9 +4125,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$34:$A$40</c:f>
@@ -4597,6 +4184,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECB-48D2-AEB3-E9F26B35B3BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4622,9 +4214,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$34:$A$40</c:f>
@@ -4684,6 +4273,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EECB-48D2-AEB3-E9F26B35B3BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4727,9 +4321,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$34:$A$40</c:f>
@@ -4766,30 +4357,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.38112522686025</c:v>
+                  <c:v>3.3811252268602541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.59077809798271</c:v>
+                  <c:v>3.5907780979827089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.59522272433828</c:v>
+                  <c:v>3.5952227243382828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.61399217221135</c:v>
+                  <c:v>3.6139921722113502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.61768172888016</c:v>
+                  <c:v>3.6176817288801573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.39500492934604</c:v>
+                  <c:v>3.3950049293460403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.36212249506068</c:v>
+                  <c:v>3.3621224950606829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EECB-48D2-AEB3-E9F26B35B3BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4799,7 +4395,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="846015790"/>
         <c:axId val="490088621"/>
@@ -4839,6 +4435,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4872,6 +4469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="703804118"/>
@@ -4939,11 +4537,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4952,6 +4548,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4981,6 +4597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="141707894"/>
@@ -4994,28 +4611,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="490088621"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5055,11 +4654,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5068,6 +4665,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -5097,6 +4714,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="846015790"/>
@@ -5118,7 +4736,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.204930555555556"/>
-          <c:y val="0.178009259259259"/>
+          <c:y val="0.17800925925925901"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5146,6 +4764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5175,6 +4794,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5186,7 +4806,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5222,11 +4842,9 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Execution Time and Speed-up Of Ind_*</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5235,6 +4853,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5245,8 +4883,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.121611111111111"/>
           <c:y val="0.147762254321572"/>
-          <c:w val="0.786777777777778"/>
-          <c:h val="0.707648591049017"/>
+          <c:w val="0.78677777777777802"/>
+          <c:h val="0.70764859104901701"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5277,9 +4915,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$11:$A$16</c:f>
@@ -5333,6 +4968,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F769-4ECB-A92C-27B3FDBF2913}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5358,9 +4998,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$11:$A$16</c:f>
@@ -5414,6 +5051,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F769-4ECB-A92C-27B3FDBF2913}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5457,9 +5099,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$11:$A$16</c:f>
@@ -5493,27 +5132,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5948275862069</c:v>
+                  <c:v>1.5948275862068966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.78685258964143</c:v>
+                  <c:v>5.786852589641434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.54901960784314</c:v>
+                  <c:v>5.5490196078431371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.04485981308411</c:v>
+                  <c:v>5.0448598130841118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.02352941176471</c:v>
+                  <c:v>5.0235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.18150684931507</c:v>
+                  <c:v>5.1815068493150687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F769-4ECB-A92C-27B3FDBF2913}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5523,7 +5167,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="109754142"/>
         <c:axId val="807611096"/>
@@ -5563,6 +5207,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5596,6 +5241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763250567"/>
@@ -5663,11 +5309,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5676,6 +5320,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5705,6 +5369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210447512"/>
@@ -5718,28 +5383,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="807611096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5778,11 +5425,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5791,6 +5436,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -5820,6 +5485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="109754142"/>
@@ -5840,8 +5506,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.171041666666667"/>
-          <c:y val="0.188992762298173"/>
+          <c:x val="0.17104166666666701"/>
+          <c:y val="0.18899276229817299"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5869,6 +5535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5898,6 +5565,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5909,7 +5577,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5951,12 +5619,6 @@
               </a:rPr>
               <a:t>Speed-up Of Different Number GPUs</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5964,8 +5626,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.276978784169727"/>
-          <c:y val="0.0361111111111111"/>
+          <c:x val="0.27697878416972699"/>
+          <c:y val="3.6111111111111101E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5976,6 +5638,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5984,10 +5667,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.104944444444444"/>
-          <c:y val="0.176388888888889"/>
-          <c:w val="0.788444444444444"/>
-          <c:h val="0.700555555555556"/>
+          <c:x val="0.10494444444444399"/>
+          <c:y val="0.17638888888888901"/>
+          <c:w val="0.78844444444444395"/>
+          <c:h val="0.70055555555555604"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6018,9 +5701,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -6054,26 +5734,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.44724025974026</c:v>
+                  <c:v>1.4472402597402598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.97277227722772</c:v>
+                  <c:v>3.972772277227723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.34777070063694</c:v>
+                  <c:v>4.3477707006369428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.28432732316227</c:v>
+                  <c:v>4.2843273231622749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.62921348314607</c:v>
+                  <c:v>4.6292134831460672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.17662337662338</c:v>
+                  <c:v>4.1766233766233762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D77-41B0-B679-94DA54015ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6099,9 +5784,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -6135,26 +5817,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.32767624020888</c:v>
+                  <c:v>2.3276762402088771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.77338129496403</c:v>
+                  <c:v>5.7733812949640289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7718253968254</c:v>
+                  <c:v>6.7718253968253972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.84922394678492</c:v>
+                  <c:v>6.8492239467849227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.15841584158416</c:v>
+                  <c:v>8.1584158415841586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.72803347280335</c:v>
+                  <c:v>6.7280334728033475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D77-41B0-B679-94DA54015ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6198,9 +5885,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -6234,27 +5918,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.60835509138381</c:v>
+                  <c:v>1.6083550913838118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45323741007194</c:v>
+                  <c:v>1.4532374100719423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.55753968253968</c:v>
+                  <c:v>1.5575396825396826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59866962305987</c:v>
+                  <c:v>1.5986696230598669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.76237623762376</c:v>
+                  <c:v>1.7623762376237624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.61087866108787</c:v>
+                  <c:v>1.6108786610878663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D77-41B0-B679-94DA54015ACB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6264,7 +5953,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="897963772"/>
         <c:axId val="393839652"/>
@@ -6304,6 +5993,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6338,6 +6028,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="319064419"/>
@@ -6412,16 +6103,9 @@
                   </a:rPr>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6430,6 +6114,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6460,6 +6165,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67284617"/>
@@ -6474,29 +6180,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="393839652"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -6534,7 +6221,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr>
+                  <a:rPr lang="en-US">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
@@ -6542,16 +6229,9 @@
                   </a:rPr>
                   <a:t>Relative Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6560,6 +6240,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -6590,6 +6291,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="897963772"/>
@@ -6627,6 +6329,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -6650,6 +6353,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -6673,6 +6377,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -6681,7 +6386,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.126597222222222"/>
-          <c:y val="0.191898148148148"/>
+          <c:y val="0.19189814814814801"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6710,6 +6415,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6744,6 +6450,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6755,7 +6462,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6799,9 +6506,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet4!$A$65:$A$69</c:f>
@@ -6850,6 +6554,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EBF-4BF8-8403-BED8D9619CB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6871,6 +6580,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6904,6 +6614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="182604938"/>
@@ -6969,12 +6680,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of GPU-Accelerated Apps</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6983,6 +6694,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7012,6 +6743,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="51256345"/>
@@ -7052,6 +6784,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7063,7 +6796,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7083,10 +6816,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.149729875742842"/>
-          <c:y val="0.0886939571150097"/>
-          <c:w val="0.738357644516477"/>
-          <c:h val="0.731091617933723"/>
+          <c:x val="0.14972987574284199"/>
+          <c:y val="8.86939571150097E-2"/>
+          <c:w val="0.73835764451647701"/>
+          <c:h val="0.73109161793372301"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7117,9 +6850,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -7173,6 +6903,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B5D-4311-958C-0AE548850A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7198,9 +6933,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -7254,6 +6986,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B5D-4311-958C-0AE548850A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7297,9 +7034,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$55:$A$60</c:f>
@@ -7333,27 +7067,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.9727047146402</c:v>
+                  <c:v>3.9727047146401984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.08365508365508</c:v>
+                  <c:v>4.083655083655084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.12342459800087</c:v>
+                  <c:v>4.1234245980008692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1413578222368</c:v>
+                  <c:v>4.1413578222367988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.15331928345627</c:v>
+                  <c:v>4.1533192834562698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.15977112676056</c:v>
+                  <c:v>4.159771126760563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B5D-4311-958C-0AE548850A62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7363,7 +7102,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="952946897"/>
         <c:axId val="938254785"/>
@@ -7424,7 +7163,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr>
+                  <a:rPr lang="en-US">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
@@ -7432,16 +7171,9 @@
                   </a:rPr>
                   <a:t>Temperature/K</a:t>
                 </a:r>
-                <a:endParaRPr>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7450,7 +7182,29 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7485,6 +7239,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="878325246"/>
@@ -7558,16 +7313,9 @@
                   </a:rPr>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7576,6 +7324,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7606,6 +7375,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="117829554"/>
@@ -7620,29 +7390,10 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="938254785"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -7686,12 +7437,6 @@
                   </a:rPr>
                   <a:t>Speed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7699,8 +7444,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.928333333333333"/>
-              <c:y val="0.380134521313767"/>
+              <c:x val="0.92833333333333301"/>
+              <c:y val="0.38013452131376702"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7711,6 +7456,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -7741,6 +7507,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="952946897"/>
@@ -7777,6 +7544,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -7800,6 +7568,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -7823,6 +7592,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -7830,8 +7600,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.164329078876283"/>
-          <c:y val="0.210173001949317"/>
+          <c:x val="0.16432907887628301"/>
+          <c:y val="0.21017300194931701"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7860,6 +7630,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7894,6 +7665,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7905,7 +7677,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7941,11 +7713,9 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Execution Time Of Different Block Size</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7954,6 +7724,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7986,9 +7776,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$C$99:$C$103</c:f>
@@ -8036,6 +7823,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A89-44DF-A11D-679F3367CB68}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8085,6 +7877,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8118,6 +7911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433289748"/>
@@ -8186,11 +7980,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8199,6 +7991,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8228,6 +8040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="412274505"/>
@@ -8268,6 +8081,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8279,7 +8093,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8300,9 +8114,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.145222222222222"/>
-          <c:y val="0.0564102564102564"/>
-          <c:w val="0.824222222222222"/>
-          <c:h val="0.784717948717949"/>
+          <c:y val="5.6410256410256397E-2"/>
+          <c:w val="0.82422222222222197"/>
+          <c:h val="0.78471794871794898"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8333,9 +8147,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -8389,6 +8200,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4513-4C86-81A7-E24A90B04E1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8414,9 +8230,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -8470,6 +8283,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4513-4C86-81A7-E24A90B04E1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8519,6 +8337,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8553,6 +8372,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870482125"/>
@@ -8626,16 +8446,9 @@
                   </a:rPr>
                   <a:t>Time/s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8644,6 +8457,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8674,6 +8508,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585216878"/>
@@ -8710,6 +8545,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -8733,6 +8569,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -8740,8 +8577,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.160763888888889"/>
-          <c:y val="0.0530092592592593"/>
+          <c:x val="0.16076388888888901"/>
+          <c:y val="5.3009259259259298E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8770,6 +8607,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8804,6 +8642,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8815,7 +8654,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8835,10 +8674,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0988333333333333"/>
-          <c:y val="0.0531400966183575"/>
+          <c:x val="9.8833333333333301E-2"/>
+          <c:y val="5.3140096618357502E-2"/>
           <c:w val="0.870611111111111"/>
-          <c:h val="0.806859903381642"/>
+          <c:h val="0.80685990338164204"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8869,9 +8708,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -8905,26 +8741,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.44724025974026</c:v>
+                  <c:v>1.4472402597402598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.97277227722772</c:v>
+                  <c:v>3.972772277227723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.34777070063694</c:v>
+                  <c:v>4.3477707006369428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.28432732316227</c:v>
+                  <c:v>4.2843273231622749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.62921348314607</c:v>
+                  <c:v>4.6292134831460672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.17662337662338</c:v>
+                  <c:v>4.1766233766233762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE44-4F17-B5F1-2911F1FE3B31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8950,9 +8791,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet4!$A$27:$A$32</c:f>
@@ -8986,26 +8824,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.32767624020888</c:v>
+                  <c:v>2.3276762402088771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.77338129496403</c:v>
+                  <c:v>5.7733812949640289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7718253968254</c:v>
+                  <c:v>6.7718253968253972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.84922394678492</c:v>
+                  <c:v>6.8492239467849227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.15841584158416</c:v>
+                  <c:v>8.1584158415841586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.72803347280335</c:v>
+                  <c:v>6.7280334728033475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE44-4F17-B5F1-2911F1FE3B31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9055,6 +8898,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9089,6 +8933,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="968383784"/>
@@ -9157,11 +9002,9 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>Soeed-up</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9170,6 +9013,27 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9200,6 +9064,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="962681062"/>
@@ -9236,6 +9101,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -9259,6 +9125,7 @@
                 <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -9267,7 +9134,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.113263888888889"/>
-          <c:y val="0.058786231884058"/>
+          <c:y val="5.8786231884058002E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9296,6 +9163,7 @@
               <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9330,6 +9198,7 @@
           <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
         </a:defRPr>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16434,7 +16303,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -16448,14 +16317,20 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5975350" y="541020"/>
-        <a:ext cx="5943600" cy="3244215"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16478,14 +16353,20 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2105660" y="4422140"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16499,7 +16380,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -16513,14 +16394,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5730240" y="1287780"/>
-        <a:ext cx="4701540" cy="2620645"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16543,14 +16430,20 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6941820" y="7858760"/>
-        <a:ext cx="6225540" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16573,14 +16466,20 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5476240" y="11910060"/>
-        <a:ext cx="4800600" cy="2331720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16603,14 +16502,20 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9075420" y="5019040"/>
-        <a:ext cx="4701540" cy="2606040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16633,14 +16538,20 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5273040" y="14556740"/>
-        <a:ext cx="4686300" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16663,14 +16574,20 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="107950" y="6070600"/>
-        <a:ext cx="4572000" cy="2476500"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16693,14 +16610,20 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5826760" y="5938520"/>
-        <a:ext cx="4572000" cy="2628900"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16723,14 +16646,20 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3365500" y="7594600"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16753,14 +16682,20 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4610100" y="5588000"/>
-        <a:ext cx="4541520" cy="2430780"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16774,28 +16709,34 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2225040" y="1493520"/>
-        <a:ext cx="4572000" cy="2842260"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16807,25 +16748,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>360680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61595</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>116840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5557520" y="975995"/>
-        <a:ext cx="4693920" cy="2803525"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17119,26 +17066,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView topLeftCell="C17" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
-    <col min="9" max="16" width="6.77777777777778" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="9" max="16" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17149,7 +17096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17160,7 +17107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17171,7 +17118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17182,7 +17129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -17193,7 +17140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -17204,7 +17151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>28</v>
       </c>
@@ -17215,7 +17162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -17232,7 +17179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17249,7 +17196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -17260,7 +17207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -17271,7 +17218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -17282,7 +17229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -17293,7 +17240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -17304,7 +17251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1" spans="8:16">
+    <row r="18" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="6"/>
       <c r="I18" s="1" t="s">
         <v>32</v>
@@ -17331,7 +17278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1" spans="8:16">
+    <row r="19" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
@@ -17344,7 +17291,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" ht="26" customHeight="1" spans="8:16">
+    <row r="20" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
@@ -17357,7 +17304,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" ht="26" customHeight="1" spans="1:16">
+    <row r="21" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -17379,7 +17326,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" ht="26" customHeight="1" spans="1:16">
+    <row r="22" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -17401,7 +17348,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -17412,7 +17359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -17423,7 +17370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -17434,7 +17381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -17445,7 +17392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
@@ -17456,7 +17403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -17467,7 +17414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -17478,17 +17425,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -17499,7 +17446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -17510,7 +17457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -17521,7 +17468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -17532,7 +17479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
@@ -17543,7 +17490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -17551,7 +17498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -17562,7 +17509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>28</v>
       </c>
@@ -17573,17 +17520,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -17594,7 +17541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>28</v>
       </c>
@@ -17605,7 +17552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -17616,7 +17563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>28</v>
       </c>
@@ -17628,6 +17575,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I19:P22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -17650,27 +17598,25 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -17678,7 +17624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -17686,7 +17632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -17694,7 +17640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -17702,7 +17648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -17710,7 +17656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -17718,7 +17664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>94</v>
@@ -17730,7 +17676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -17742,10 +17688,10 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D15" si="0">B10/C10</f>
-        <v>1.42206896551724</v>
+        <v>1.4220689655172414</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -17757,10 +17703,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>3.38112522686025</v>
+        <v>3.3811252268602541</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -17772,10 +17718,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.45328031809145</v>
+        <v>3.4532803180914513</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -17787,10 +17733,10 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.39254385964912</v>
+        <v>3.3925438596491229</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -17802,10 +17748,10 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4.28712871287129</v>
+        <v>4.2871287128712874</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -17817,78 +17763,78 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3.28333333333333</v>
+        <v>3.2833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -17902,7 +17848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>300</v>
       </c>
@@ -17914,10 +17860,10 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" ref="D34:D40" si="1">B34/C34</f>
-        <v>3.38112522686025</v>
+        <v>3.3811252268602541</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -17929,10 +17875,10 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>3.59077809798271</v>
+        <v>3.5907780979827089</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -17944,10 +17890,10 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>3.59522272433828</v>
+        <v>3.5952227243382828</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -17959,10 +17905,10 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>3.61399217221135</v>
+        <v>3.6139921722113502</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -17974,10 +17920,10 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>3.61768172888016</v>
+        <v>3.6176817288801573</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -17989,10 +17935,10 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>3.39500492934604</v>
+        <v>3.3950049293460403</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -18004,34 +17950,33 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>3.36212249506068</v>
+        <v>3.3621224950606829</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
-    <col min="3" max="11" width="14.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="11" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>108</v>
@@ -18049,7 +17994,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -18069,7 +18014,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -18089,7 +18034,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -18109,7 +18054,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -18129,7 +18074,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -18149,7 +18094,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -18169,7 +18114,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -18177,7 +18122,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>114</v>
@@ -18189,7 +18134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -18201,10 +18146,10 @@
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D16" si="0">B11/C11</f>
-        <v>1.5948275862069</v>
+        <v>1.5948275862068966</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
@@ -18216,10 +18161,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>5.78685258964143</v>
+        <v>5.786852589641434</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -18231,10 +18176,10 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>5.54901960784314</v>
+        <v>5.5490196078431371</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -18246,10 +18191,10 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>5.04485981308411</v>
+        <v>5.0448598130841118</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -18261,10 +18206,10 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>5.02352941176471</v>
+        <v>5.0235294117647058</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -18276,37 +18221,37 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5.18150684931507</v>
+        <v>5.1815068493150687</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>AVERAGE(D11:D16)</f>
-        <v>4.69676597630923</v>
+        <v>4.6967659763092255</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
@@ -18326,7 +18271,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -18341,18 +18286,18 @@
       </c>
       <c r="E27">
         <f t="shared" ref="E27:E32" si="1">B27/C27</f>
-        <v>1.44724025974026</v>
+        <v>1.4472402597402598</v>
       </c>
       <c r="F27">
         <f t="shared" ref="F27:F32" si="2">B27/D27</f>
-        <v>2.32767624020888</v>
+        <v>2.3276762402088771</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G32" si="3">F27/E27</f>
-        <v>1.60835509138381</v>
+        <v>1.6083550913838118</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -18367,18 +18312,18 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>3.97277227722772</v>
+        <v>3.972772277227723</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>5.77338129496403</v>
+        <v>5.7733812949640289</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>1.45323741007194</v>
+        <v>1.4532374100719423</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -18393,18 +18338,18 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>4.34777070063694</v>
+        <v>4.3477707006369428</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>6.7718253968254</v>
+        <v>6.7718253968253972</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>1.55753968253968</v>
+        <v>1.5575396825396826</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
@@ -18419,18 +18364,18 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>4.28432732316227</v>
+        <v>4.2843273231622749</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>6.84922394678492</v>
+        <v>6.8492239467849227</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>1.59866962305987</v>
+        <v>1.5986696230598669</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -18445,18 +18390,18 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>4.62921348314607</v>
+        <v>4.6292134831460672</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>8.15841584158416</v>
+        <v>8.1584158415841586</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>1.76237623762376</v>
+        <v>1.7623762376237624</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -18471,32 +18416,32 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>4.17662337662338</v>
+        <v>4.1766233766233762</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>6.72803347280335</v>
+        <v>6.7280334728033475</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>1.61087866108787</v>
+        <v>1.6108786610878663</v>
       </c>
     </row>
-    <row r="33" spans="5:7">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33">
         <f>AVERAGE(E27:E32)</f>
-        <v>3.80965790342277</v>
+        <v>3.809657903422774</v>
       </c>
       <c r="F33">
         <f>AVERAGE(F27:F32)</f>
-        <v>6.10142603219512</v>
+        <v>6.1014260321951221</v>
       </c>
       <c r="G33">
         <f>AVERAGE(G27:G32)</f>
-        <v>1.59850945096116</v>
+        <v>1.5985094509611555</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>114</v>
@@ -18512,7 +18457,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>300</v>
       </c>
@@ -18524,17 +18469,17 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" ref="D55:D61" si="4">B55/C55</f>
-        <v>3.9727047146402</v>
+        <v>3.9727047146401984</v>
       </c>
       <c r="E55" s="5">
         <v>548</v>
       </c>
       <c r="F55" s="5">
         <f>B55/E55</f>
-        <v>5.84306569343066</v>
+        <v>5.8430656934306571</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>102</v>
       </c>
@@ -18546,17 +18491,17 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" si="4"/>
-        <v>4.08365508365508</v>
+        <v>4.083655083655084</v>
       </c>
       <c r="E56" s="5">
         <v>1031</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" ref="F56:F61" si="5">B56/E56</f>
-        <v>6.15518913676043</v>
+        <v>6.155189136760427</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>103</v>
       </c>
@@ -18568,17 +18513,17 @@
       </c>
       <c r="D57" s="5">
         <f t="shared" si="4"/>
-        <v>4.12342459800087</v>
+        <v>4.1234245980008692</v>
       </c>
       <c r="E57" s="5">
         <v>1527</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="5"/>
-        <v>6.21349050425671</v>
+        <v>6.2134905042567121</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -18590,17 +18535,17 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" si="4"/>
-        <v>4.1413578222368</v>
+        <v>4.1413578222367988</v>
       </c>
       <c r="E58" s="5">
         <v>2014</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="5"/>
-        <v>6.26961271102284</v>
+        <v>6.2696127110228401</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
@@ -18612,17 +18557,17 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" si="4"/>
-        <v>4.15331928345627</v>
+        <v>4.1533192834562698</v>
       </c>
       <c r="E59" s="5">
         <v>2504</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="5"/>
-        <v>6.29632587859425</v>
+        <v>6.2963258785942493</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>106</v>
       </c>
@@ -18634,17 +18579,17 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" si="4"/>
-        <v>4.15977112676056</v>
+        <v>4.159771126760563</v>
       </c>
       <c r="E60" s="5">
         <v>2991</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="5"/>
-        <v>6.31962554329656</v>
+        <v>6.3196255432965565</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
@@ -18656,28 +18601,28 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="4"/>
-        <v>4.15849056603774</v>
+        <v>4.1584905660377363</v>
       </c>
       <c r="E61" s="5">
         <v>3470</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="5"/>
-        <v>6.35158501440922</v>
+        <v>6.3515850144092223</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <f>AVERAGE(D55:D60)</f>
-        <v>4.10570543812496</v>
+        <v>4.1057054381249642</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -18685,7 +18630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -18693,7 +18638,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -18701,7 +18646,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2017</v>
       </c>
@@ -18709,7 +18654,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -18717,7 +18662,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -18729,7 +18674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>123</v>
       </c>
@@ -18744,7 +18689,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -18757,7 +18702,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
@@ -18770,7 +18715,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -18783,7 +18728,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>127</v>
       </c>
@@ -18796,7 +18741,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
@@ -18811,7 +18756,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -18826,7 +18771,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
@@ -18836,7 +18781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
@@ -18846,7 +18791,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
@@ -18856,7 +18801,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
@@ -18866,7 +18811,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
@@ -18876,7 +18821,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
@@ -18886,7 +18831,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
@@ -18894,7 +18839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -18902,7 +18847,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
@@ -18910,7 +18855,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>125</v>
       </c>
@@ -18918,7 +18863,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>126</v>
       </c>
@@ -18926,7 +18871,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
@@ -18934,7 +18879,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
@@ -18942,7 +18887,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
@@ -18950,52 +18895,52 @@
         <v>804</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -19003,27 +18948,27 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -19056,7 +19001,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -19091,7 +19036,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -19122,7 +19067,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -19149,7 +19094,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -19172,7 +19117,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -19181,7 +19126,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -19189,7 +19134,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -19197,7 +19142,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>124</v>
       </c>
@@ -19205,7 +19150,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>125</v>
       </c>
@@ -19213,7 +19158,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>128</v>
       </c>
@@ -19221,7 +19166,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -19229,7 +19174,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>129</v>
       </c>
@@ -19237,7 +19182,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -19245,7 +19190,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -19253,7 +19198,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -19262,6 +19207,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N134">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -19293,26 +19239,25 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -19330,7 +19275,7 @@
         <v>16855</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -19348,7 +19293,7 @@
         <v>22989</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -19363,7 +19308,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -19371,7 +19316,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>162</v>
       </c>
@@ -19379,7 +19324,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -19387,7 +19332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -19401,7 +19346,7 @@
         <v>16855</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -19415,7 +19360,7 @@
         <v>22989</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -19429,7 +19374,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -19443,7 +19388,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -19461,7 +19406,7 @@
         <v>115800</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -19479,7 +19424,7 @@
         <v>160606</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -19494,7 +19439,7 @@
         <v>70657</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -19502,7 +19447,7 @@
         <v>15282</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -19510,7 +19455,7 @@
         <v>115800</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -19518,7 +19463,7 @@
         <v>160606</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -19526,7 +19471,7 @@
         <v>70657</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -19535,9 +19480,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>